--- a/ナズナの地上部/ナズナの地上部.xlsx
+++ b/ナズナの地上部/ナズナの地上部.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -424,394 +424,742 @@
     <t xml:space="preserve">1-Kestose</t>
   </si>
   <si>
-    <t xml:space="preserve">setdiff.IDs_2..IDs_1.</t>
+    <t xml:space="preserve">IDs2OnlyAndNamesUnique</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">14985</t>
+    <t xml:space="preserve">Alpha-Tocopherol</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">210328</t>
+    <t xml:space="preserve">Dehydroascorbic acid</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">439451</t>
+    <t xml:space="preserve">Galactinol</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">11850</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">128869</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">439162</t>
+    <t xml:space="preserve">Glycerol 3-phosphate</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">778</t>
+    <t xml:space="preserve">Homocysteine</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">107689</t>
+    <t xml:space="preserve">L-Lactic acid</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">439198</t>
+    <t xml:space="preserve">Mannose 6-phosphate</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">849</t>
+    <t xml:space="preserve">Pipecolic acid</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">1045</t>
+    <t xml:space="preserve">Putrescine</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">10542</t>
+    <t xml:space="preserve">Raffinose</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">10253</t>
+    <t xml:space="preserve">Salicyluric acid</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">637775</t>
+    <t xml:space="preserve">Sinapic acid</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">11005</t>
+    <t xml:space="preserve">Myristic acid</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
-    <t xml:space="preserve">169019</t>
-  </si>
-  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
-    <t xml:space="preserve">2724794</t>
-  </si>
-  <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
-    <t xml:space="preserve">439574</t>
+    <t xml:space="preserve">Erythrose</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
-    <t xml:space="preserve">1176</t>
+    <t xml:space="preserve">Urea</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">135191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intersect.IDs_2..IDs_1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PubChem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">439195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5283637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11025495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">439709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">444972</t>
+    <t xml:space="preserve">D-Xylose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDsCommonAndNamesUnique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Arabinose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Asparagine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Aspartic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta-Alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta-Sitosterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campesterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cholesterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dihydrouracil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erythritol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethanolamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Fructose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose 6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fumaric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamma-Aminobutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose 6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Glutamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Glutamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyceric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta-Glycerophosphoric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmitic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Homoserine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroxylamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Indoleacetonitrile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Isoleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linoleic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha-Linolenic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Malic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Methionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ornithine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Phenylalanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Proline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
   </si>
   <si>
     <t xml:space="preserve">119</t>
   </si>
   <si>
-    <t xml:space="preserve">5793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">439194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">351795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5280450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5280934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6287</t>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyroglutamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Ribose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shikimic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spermidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stearic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sucrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetracosanoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threonic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Threonine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trehalose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyramine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Tyrosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uracil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Valine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
   </si>
 </sst>
 </file>
@@ -1743,136 +2091,128 @@
       <c r="A5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
+      <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" t="s">
-        <v>168</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" t="s">
-        <v>170</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1894,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -1902,7 +2242,7 @@
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -1910,7 +2250,7 @@
         <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -1918,7 +2258,7 @@
         <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -1926,407 +2266,1383 @@
         <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="B54" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>231</v>
+      </c>
+      <c r="B62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>239</v>
+      </c>
+      <c r="B69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>241</v>
+      </c>
+      <c r="B70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>255</v>
+      </c>
+      <c r="B81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>262</v>
+      </c>
+      <c r="B86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
         <v>264</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
         <v>265</v>
+      </c>
+      <c r="B88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>272</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>279</v>
+      </c>
+      <c r="B98" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>280</v>
+      </c>
+      <c r="B99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B101" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>285</v>
+      </c>
+      <c r="B102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>286</v>
+      </c>
+      <c r="B103" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>290</v>
+      </c>
+      <c r="B106" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>294</v>
+      </c>
+      <c r="B109" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>296</v>
+      </c>
+      <c r="B110" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>297</v>
+      </c>
+      <c r="B111" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>298</v>
+      </c>
+      <c r="B112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>299</v>
+      </c>
+      <c r="B113" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>300</v>
+      </c>
+      <c r="B114" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>302</v>
+      </c>
+      <c r="B115" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>304</v>
+      </c>
+      <c r="B117" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>306</v>
+      </c>
+      <c r="B118" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>308</v>
+      </c>
+      <c r="B119" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>309</v>
+      </c>
+      <c r="B120" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>310</v>
+      </c>
+      <c r="B121" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>311</v>
+      </c>
+      <c r="B122" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>312</v>
+      </c>
+      <c r="B123" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>313</v>
+      </c>
+      <c r="B124" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>314</v>
+      </c>
+      <c r="B125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>315</v>
+      </c>
+      <c r="B126" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>317</v>
+      </c>
+      <c r="B127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>318</v>
+      </c>
+      <c r="B128" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>319</v>
+      </c>
+      <c r="B129" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>320</v>
+      </c>
+      <c r="B130" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>322</v>
+      </c>
+      <c r="B131" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>323</v>
+      </c>
+      <c r="B132" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>324</v>
+      </c>
+      <c r="B133" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>325</v>
+      </c>
+      <c r="B134" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>326</v>
+      </c>
+      <c r="B135" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>327</v>
+      </c>
+      <c r="B136" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>329</v>
+      </c>
+      <c r="B137" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>66</v>
+      </c>
+      <c r="B138" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>330</v>
+      </c>
+      <c r="B139" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>331</v>
+      </c>
+      <c r="B140" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>334</v>
+      </c>
+      <c r="B142" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>336</v>
+      </c>
+      <c r="B143" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>337</v>
+      </c>
+      <c r="B144" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>341</v>
+      </c>
+      <c r="B147" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>342</v>
+      </c>
+      <c r="B148" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>344</v>
+      </c>
+      <c r="B149" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>345</v>
+      </c>
+      <c r="B150" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>347</v>
+      </c>
+      <c r="B151" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>348</v>
+      </c>
+      <c r="B152" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>350</v>
+      </c>
+      <c r="B153" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>352</v>
+      </c>
+      <c r="B154" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>353</v>
+      </c>
+      <c r="B155" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>355</v>
+      </c>
+      <c r="B156" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>356</v>
+      </c>
+      <c r="B157" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>357</v>
+      </c>
+      <c r="B158" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>358</v>
+      </c>
+      <c r="B159" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>359</v>
+      </c>
+      <c r="B160" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>361</v>
+      </c>
+      <c r="B161" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>362</v>
+      </c>
+      <c r="B162" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>363</v>
+      </c>
+      <c r="B163" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>364</v>
+      </c>
+      <c r="B164" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>365</v>
+      </c>
+      <c r="B165" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>368</v>
+      </c>
+      <c r="B168" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>370</v>
+      </c>
+      <c r="B169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>371</v>
+      </c>
+      <c r="B170" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>373</v>
+      </c>
+      <c r="B171" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>374</v>
+      </c>
+      <c r="B172" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>375</v>
+      </c>
+      <c r="B173" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>377</v>
+      </c>
+      <c r="B174" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>378</v>
+      </c>
+      <c r="B175" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>380</v>
+      </c>
+      <c r="B176" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>381</v>
+      </c>
+      <c r="B177" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
